--- a/sagol_project/documentation/variable_dictionary.xlsx
+++ b/sagol_project/documentation/variable_dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5068366f23229520/מסמכים/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halel\Documents\Sagol_Reut_Naim_Project\sagol_project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{1E04D315-B7C5-4CDD-AC27-142C7B7F0024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C408264C-808B-45DC-915F-834BC9BEABD7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE49BD2-C954-481B-A7C5-C296B7A297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1BFA0AA2-9BD7-443A-93E2-FA6DE728A3AF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="226">
   <si>
     <t>excluded_eyegaze_data</t>
   </si>
@@ -671,46 +671,49 @@
     <t>Percentage of offscreen data on right eye</t>
   </si>
   <si>
-    <t>mean number of fixation?</t>
-  </si>
-  <si>
     <t>variable</t>
   </si>
   <si>
     <t>meaning</t>
   </si>
   <si>
-    <t>Units of measurement</t>
-  </si>
-  <si>
-    <t>binary?</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>male / female</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
-    <t>number?</t>
-  </si>
-  <si>
-    <t>ms</t>
-  </si>
-  <si>
     <t>Time participants did not look at the screen</t>
   </si>
   <si>
     <t>Time participants looked on the screen but not on the figure</t>
   </si>
   <si>
-    <t>Time participants looked away, not in the direction of the screen</t>
-  </si>
-  <si>
-    <t>%</t>
+    <t>mean number of fixation. angry direct background</t>
+  </si>
+  <si>
+    <t>mean number of fixation. angry direct eyes</t>
+  </si>
+  <si>
+    <t>mean number of fixation. angry direct mouth</t>
+  </si>
+  <si>
+    <t>mean number of fixation. angry direct offscreen</t>
+  </si>
+  <si>
+    <t>mean number of fixation. angry avert background</t>
+  </si>
+  <si>
+    <t>mean number of fixation. angry avert eyes</t>
+  </si>
+  <si>
+    <t>mean number of fixation. angry avert mouth</t>
+  </si>
+  <si>
+    <t>mean number of fixation. angry avert offscreen</t>
+  </si>
+  <si>
+    <t>mean number of fixation</t>
+  </si>
+  <si>
+    <t>msOffscreen + msOnBackground</t>
   </si>
 </sst>
 </file>
@@ -760,12 +763,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,1157 +1102,1065 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593DCA62-547F-4B3E-B58D-B9E88426B182}">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:B132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.36328125" customWidth="1"/>
     <col min="2" max="2" width="64.08984375" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C43" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
+      <c r="B48" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
+      <c r="B49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
+      <c r="B50" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
+      <c r="B51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
+      <c r="B52" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
+      <c r="B53" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
+      <c r="B54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" t="s">
         <v>154</v>
       </c>
-      <c r="C55" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
         <v>171</v>
       </c>
-      <c r="C59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="3" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="3" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" t="s">
         <v>155</v>
       </c>
-      <c r="C63" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="3" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="3" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="3" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" t="s">
         <v>175</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" t="s">
         <v>176</v>
       </c>
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" t="s">
         <v>177</v>
       </c>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A82" s="3" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" t="s">
         <v>178</v>
       </c>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A83" s="3" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" t="s">
         <v>179</v>
       </c>
-      <c r="C83" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A85" s="3" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A86" s="3" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A87" s="3" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A88" s="3" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A89" s="3" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A90" s="3" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A92" s="3" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A94" s="3" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A95" s="3" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A96" s="3" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A97" s="3" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" t="s">
         <v>195</v>
       </c>
-      <c r="C99" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A101" s="3" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A103" s="3" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C103" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A104" s="3" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A105" s="3" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B107" s="3"/>
-      <c r="C107" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A108" s="3" t="s">
+      <c r="B107" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="3"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A109" s="3" t="s">
+      <c r="B108" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B109" s="3"/>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A110" s="3" t="s">
+      <c r="B109" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B110" s="3"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A111" s="3" t="s">
+      <c r="B110" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A112" s="3" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A113" s="3" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A114" s="3" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" t="s">
         <v>203</v>
       </c>
-      <c r="C114" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A115" s="3" t="s">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A116" s="3" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A117" s="3" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A118" s="3" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>116</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A119" s="3" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A120" s="3" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>118</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="3" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>119</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A122" s="3" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>120</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A123" s="3" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
         <v>121</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A124" s="3" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>122</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A125" s="3" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>123</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A126" s="3" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>124</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A127" s="3" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>125</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A128" s="3" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>126</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="3" t="s">
+      <c r="A129" t="s">
         <v>127</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="3" t="s">
+      <c r="A130" t="s">
         <v>128</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="3" t="s">
+      <c r="A131" t="s">
         <v>129</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="3" t="s">
+      <c r="A132" t="s">
         <v>130</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" t="s">
         <v>208</v>
       </c>
     </row>

--- a/sagol_project/documentation/variable_dictionary.xlsx
+++ b/sagol_project/documentation/variable_dictionary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halel\Documents\Sagol_Reut_Naim_Project\sagol_project\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halel\Sagol_Reut_Naim_Project\sagol_project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE49BD2-C954-481B-A7C5-C296B7A297F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B670E6-F030-430D-8209-8330031F754F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1BFA0AA2-9BD7-443A-93E2-FA6DE728A3AF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="236">
   <si>
     <t>excluded_eyegaze_data</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Fix_a_d_MO</t>
   </si>
   <si>
-    <t>Fix_a_d_None</t>
-  </si>
-  <si>
     <t>Fix_a_a_BG</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Fix_a_a_MO</t>
   </si>
   <si>
-    <t>Fix_a_a_None</t>
-  </si>
-  <si>
     <t>Fix_c_d_BG</t>
   </si>
   <si>
@@ -98,9 +92,6 @@
     <t>Fix_c_d_MO</t>
   </si>
   <si>
-    <t>Fix_c_d_None</t>
-  </si>
-  <si>
     <t>Fix_c_a_BG</t>
   </si>
   <si>
@@ -110,9 +101,6 @@
     <t>Fix_c_a_MO</t>
   </si>
   <si>
-    <t>Fix_c_a_None</t>
-  </si>
-  <si>
     <t>Dwell_a_d_BG</t>
   </si>
   <si>
@@ -122,9 +110,6 @@
     <t>Dwell_a_d_MO</t>
   </si>
   <si>
-    <t>Dwell_a_d_None</t>
-  </si>
-  <si>
     <t>Dwell_a_a_BG</t>
   </si>
   <si>
@@ -134,9 +119,6 @@
     <t>Dwell_a_a_MO</t>
   </si>
   <si>
-    <t>Dwell_a_a_None</t>
-  </si>
-  <si>
     <t>Dwell_c_d_BG</t>
   </si>
   <si>
@@ -146,9 +128,6 @@
     <t>Dwell_c_d_MO</t>
   </si>
   <si>
-    <t>Dwell_c_d_None</t>
-  </si>
-  <si>
     <t>Dwell_c_a_BG</t>
   </si>
   <si>
@@ -158,9 +137,6 @@
     <t>Dwell_c_a_MO</t>
   </si>
   <si>
-    <t>Dwell_c_a_None</t>
-  </si>
-  <si>
     <t>msOffscreena_a</t>
   </si>
   <si>
@@ -230,9 +206,6 @@
     <t>pctFirstFixa_aBG</t>
   </si>
   <si>
-    <t>pctFirstFixa_aNone</t>
-  </si>
-  <si>
     <t>pctFirstFixc_aEY</t>
   </si>
   <si>
@@ -242,9 +215,6 @@
     <t>pctFirstFixc_aBG</t>
   </si>
   <si>
-    <t>pctFirstFixc_aNone</t>
-  </si>
-  <si>
     <t>pctFirstFixa_dEY</t>
   </si>
   <si>
@@ -254,9 +224,6 @@
     <t>pctFirstFixa_dBG</t>
   </si>
   <si>
-    <t>pctFirstFixa_dNone</t>
-  </si>
-  <si>
     <t>pctFirstFixc_dEY</t>
   </si>
   <si>
@@ -266,9 +233,6 @@
     <t>pctFirstFixc_dBG</t>
   </si>
   <si>
-    <t>pctFirstFixc_dNone</t>
-  </si>
-  <si>
     <t>meanPupilDilationStima_a</t>
   </si>
   <si>
@@ -290,9 +254,6 @@
     <t>FM_a_d_MO</t>
   </si>
   <si>
-    <t>FM_a_d_None</t>
-  </si>
-  <si>
     <t>FM_a_a_BG</t>
   </si>
   <si>
@@ -302,9 +263,6 @@
     <t>FM_a_a_MO</t>
   </si>
   <si>
-    <t>FM_a_a_None</t>
-  </si>
-  <si>
     <t>FM_c_d_BG</t>
   </si>
   <si>
@@ -314,9 +272,6 @@
     <t>FM_c_d_MO</t>
   </si>
   <si>
-    <t>FM_c_d_None</t>
-  </si>
-  <si>
     <t>FM_c_a_BG</t>
   </si>
   <si>
@@ -326,9 +281,6 @@
     <t>FM_c_a_MO</t>
   </si>
   <si>
-    <t>FM_c_a_None</t>
-  </si>
-  <si>
     <t>meanRT-a_a</t>
   </si>
   <si>
@@ -431,12 +383,6 @@
     <t>pctTrialsExcludedR</t>
   </si>
   <si>
-    <t>only zeros</t>
-  </si>
-  <si>
-    <t>1 when pctPupilTrialsExcluded &gt; 23</t>
-  </si>
-  <si>
     <t>Diagnosis</t>
   </si>
   <si>
@@ -461,9 +407,6 @@
     <t>Dwell time angry direct mouth</t>
   </si>
   <si>
-    <t>Dwell time angry direct offscreen</t>
-  </si>
-  <si>
     <t>Dwell time angry avert background</t>
   </si>
   <si>
@@ -473,9 +416,6 @@
     <t>Dwell time angry avert mouth</t>
   </si>
   <si>
-    <t>Dwell time angry avert offscreen</t>
-  </si>
-  <si>
     <t>Dwell time calm direct background</t>
   </si>
   <si>
@@ -485,9 +425,6 @@
     <t>Dwell time calm direct mouth</t>
   </si>
   <si>
-    <t>Dwell time calm direct offscreen</t>
-  </si>
-  <si>
     <t>Dwell time calm avert background</t>
   </si>
   <si>
@@ -497,12 +434,6 @@
     <t>Dwell time calm avert mouth</t>
   </si>
   <si>
-    <t>Dwell time calm avert offscreen</t>
-  </si>
-  <si>
-    <t>maximum percentage of image growth</t>
-  </si>
-  <si>
     <t>% of first fixations in eye region for trial type angry avert</t>
   </si>
   <si>
@@ -512,9 +443,6 @@
     <t>% of first fixations on background (onscreen) regions for trial type angry avert</t>
   </si>
   <si>
-    <t>% of first fixations offscreen for trial type angry avert</t>
-  </si>
-  <si>
     <t>% of first fixations in eye region for trial type calm avert</t>
   </si>
   <si>
@@ -524,9 +452,6 @@
     <t>% of first fixations on background (onscreen) regions for trial type calm avert</t>
   </si>
   <si>
-    <t>% of first fixations offscreen for trial type calm avert</t>
-  </si>
-  <si>
     <t>% of first fixations in eye region for trial type angry direct</t>
   </si>
   <si>
@@ -536,9 +461,6 @@
     <t>% of first fixations on background (onscreen) regions for trial type angry direct</t>
   </si>
   <si>
-    <t>% of first fixations offscreen for trial type angry direct</t>
-  </si>
-  <si>
     <t>% of first fixations in eye region for trial type calm direct</t>
   </si>
   <si>
@@ -548,9 +470,6 @@
     <t>% of first fixations on background (onscreen) regions for trial type calm direct</t>
   </si>
   <si>
-    <t>% of first fixations offscreen for trial type calm direct</t>
-  </si>
-  <si>
     <t>Mean first fixation time for the 'angry avert' trial type</t>
   </si>
   <si>
@@ -584,9 +503,6 @@
     <t>mean fixation time on mouth for angry direct trials</t>
   </si>
   <si>
-    <t>mean fixation time offscreen for angry direct trials</t>
-  </si>
-  <si>
     <t>mean fixation time on background for angry avert trials</t>
   </si>
   <si>
@@ -596,9 +512,6 @@
     <t>mean fixation time on mouth for angry avert trials</t>
   </si>
   <si>
-    <t>mean fixation time offscreen for angry avert trials</t>
-  </si>
-  <si>
     <t>mean fixation time on background for calm direct trials</t>
   </si>
   <si>
@@ -608,9 +521,6 @@
     <t>mean fixation time on mouth for calm direct trials</t>
   </si>
   <si>
-    <t>mean fixation time offscreen for calm direct trials</t>
-  </si>
-  <si>
     <t>mean fixation time on background for calm avert trials</t>
   </si>
   <si>
@@ -620,9 +530,6 @@
     <t>mean fixation time on mouth for calm avert trials</t>
   </si>
   <si>
-    <t>mean fixation time offscreen for calm avert trials</t>
-  </si>
-  <si>
     <t>Mean RT of angry avert trials</t>
   </si>
   <si>
@@ -635,9 +542,6 @@
     <t>Mean RT of direct calm trials</t>
   </si>
   <si>
-    <t>noise of rt</t>
-  </si>
-  <si>
     <t>number of blinks</t>
   </si>
   <si>
@@ -677,43 +581,169 @@
     <t>meaning</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Time participants did not look at the screen</t>
-  </si>
-  <si>
-    <t>Time participants looked on the screen but not on the figure</t>
-  </si>
-  <si>
-    <t>mean number of fixation. angry direct background</t>
-  </si>
-  <si>
-    <t>mean number of fixation. angry direct eyes</t>
-  </si>
-  <si>
-    <t>mean number of fixation. angry direct mouth</t>
-  </si>
-  <si>
-    <t>mean number of fixation. angry direct offscreen</t>
-  </si>
-  <si>
-    <t>mean number of fixation. angry avert background</t>
-  </si>
-  <si>
-    <t>mean number of fixation. angry avert eyes</t>
-  </si>
-  <si>
-    <t>mean number of fixation. angry avert mouth</t>
-  </si>
-  <si>
-    <t>mean number of fixation. angry avert offscreen</t>
-  </si>
-  <si>
-    <t>mean number of fixation</t>
-  </si>
-  <si>
-    <t>msOffscreen + msOnBackground</t>
+    <t>if particiapnt needs to be exlcuded due to bad ET data</t>
+  </si>
+  <si>
+    <t>No-0, Yes=1</t>
+  </si>
+  <si>
+    <t>if particiapnt needs to be exlcuded due to bad pupil data</t>
+  </si>
+  <si>
+    <t>Time participants did not look at the screen angry  avert</t>
+  </si>
+  <si>
+    <t>Time participants did not look at the screen calm avert</t>
+  </si>
+  <si>
+    <t>Time participants did not look at the screen angry  direct</t>
+  </si>
+  <si>
+    <t>Time participants did not look at the screen calm direct</t>
+  </si>
+  <si>
+    <t>Time participants looked on the screen but not on the figure angry avert</t>
+  </si>
+  <si>
+    <t>Time participants looked on the screen but not on the figure calm avert</t>
+  </si>
+  <si>
+    <t>Time participants looked on the screen but not on the figure angry direct</t>
+  </si>
+  <si>
+    <t>Time participants looked on the screen but not on the figure calm direct</t>
+  </si>
+  <si>
+    <t>msOffscreen + msOnBackground  % time for angry direct</t>
+  </si>
+  <si>
+    <t>msOffscreen + msOnBackground %time for angry avert</t>
+  </si>
+  <si>
+    <t>msOffscreen + msOnBackground %time for calm direct</t>
+  </si>
+  <si>
+    <t>msOffscreen + msOnBackground %time for calm avert</t>
+  </si>
+  <si>
+    <t>maximum percentage of image growth angry avert</t>
+  </si>
+  <si>
+    <t>maximum percentage of image growth calm avert</t>
+  </si>
+  <si>
+    <t>maximum percentage of image growth angry direct</t>
+  </si>
+  <si>
+    <t>maximum percentage of image growth calm direct</t>
+  </si>
+  <si>
+    <t>missing data in ms for avert angry</t>
+  </si>
+  <si>
+    <t>missing data in ms for avert calm</t>
+  </si>
+  <si>
+    <t>missing data in ms for direct angry</t>
+  </si>
+  <si>
+    <t>missing data in ms for direct calm</t>
+  </si>
+  <si>
+    <t>total dwell for avery angry</t>
+  </si>
+  <si>
+    <t>total dwell for avert calm</t>
+  </si>
+  <si>
+    <t>total dwell for direct angry</t>
+  </si>
+  <si>
+    <t>total dwell for direct calm</t>
+  </si>
+  <si>
+    <t>Percentage of missing data in the avert angry</t>
+  </si>
+  <si>
+    <t>Percentage of missing data in the avert calm</t>
+  </si>
+  <si>
+    <t>Percentage of missing data in the direct angry</t>
+  </si>
+  <si>
+    <t>Percentage of missing data in the direct calm</t>
+  </si>
+  <si>
+    <t>Percentage of time the participant did not look at the screen avery angry</t>
+  </si>
+  <si>
+    <t>Percentage of time the participant did not look at the screen avert calm</t>
+  </si>
+  <si>
+    <t>Percentage of time the participant did not look at the screen direct angry</t>
+  </si>
+  <si>
+    <t>Percentage of time the participant did not look at the screen direct calm</t>
+  </si>
+  <si>
+    <t>Percentage of time the participant looked at the background (on screen) avert angry</t>
+  </si>
+  <si>
+    <t>Percentage of time the participant looked at the background (on screen) avert calm</t>
+  </si>
+  <si>
+    <t>Percentage of time the participant looked at the background (on screen) direct angry</t>
+  </si>
+  <si>
+    <t>Percentage of time the participant looked at the background (on screen) dirct calm</t>
+  </si>
+  <si>
+    <t>Percentage of missing samples on left eye</t>
+  </si>
+  <si>
+    <t>Percentage of missing samples on right eye</t>
+  </si>
+  <si>
+    <t>Percentage of excluded trials on left eye</t>
+  </si>
+  <si>
+    <t>Percentage of excluded trials on right eye</t>
+  </si>
+  <si>
+    <t>mean number of fixation for angry direct background</t>
+  </si>
+  <si>
+    <t>mean number of fixation for angry direct eyes</t>
+  </si>
+  <si>
+    <t>mean number of fixation for angry direct mouth</t>
+  </si>
+  <si>
+    <t>mean number of fixation for angry avert background</t>
+  </si>
+  <si>
+    <t>mean number of fixation for angry avert eyes</t>
+  </si>
+  <si>
+    <t>mean number of fixation for angry avert mouth</t>
+  </si>
+  <si>
+    <t>mean number of fixation for calm direct background</t>
+  </si>
+  <si>
+    <t>mean number of fixation for calm direct eyes</t>
+  </si>
+  <si>
+    <t>mean number of fixation for calm direct mouth</t>
+  </si>
+  <si>
+    <t>mean number of fixation for calm avert background</t>
+  </si>
+  <si>
+    <t>mean number of fixation for calm avert eyes</t>
+  </si>
+  <si>
+    <t>mean number of fixation for calm avert mouth</t>
   </si>
 </sst>
 </file>
@@ -765,9 +795,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1102,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593DCA62-547F-4B3E-B58D-B9E88426B182}">
-  <dimension ref="A1:B132"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1114,814 +1144,836 @@
     <col min="2" max="2" width="64.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -1929,7 +1981,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -1937,7 +1989,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -1945,7 +1997,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -1953,7 +2005,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -1961,7 +2013,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -1969,7 +2021,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -1977,7 +2029,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -1985,183 +2037,183 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>213</v>
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B111" t="s">
-        <v>200</v>
+      <c r="B111" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B112" t="s">
-        <v>201</v>
+      <c r="B112" s="1" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B113" t="s">
-        <v>202</v>
+      <c r="B113" s="1" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B114" t="s">
-        <v>203</v>
+      <c r="B114" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B115" t="s">
-        <v>203</v>
+      <c r="B115" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
-        <v>203</v>
+      <c r="B116" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B117" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B118" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B119" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B120" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B121" t="s">
-        <v>204</v>
+        <v>172</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B122" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="B123" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B124" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B125" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B126" t="s">
-        <v>206</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="B127" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B128" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B129" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="B130" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B131" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B132" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/sagol_project/documentation/variable_dictionary.xlsx
+++ b/sagol_project/documentation/variable_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halel\Sagol_Reut_Naim_Project\sagol_project\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B670E6-F030-430D-8209-8330031F754F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C1727D6-BE4B-4F40-9791-861DCB30AA4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{1BFA0AA2-9BD7-443A-93E2-FA6DE728A3AF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="231">
   <si>
     <t>excluded_eyegaze_data</t>
   </si>
@@ -551,24 +551,9 @@
     <t>number of Sacades</t>
   </si>
   <si>
-    <t>Percentage of missing data</t>
-  </si>
-  <si>
-    <t>Percentage of time the participant did not look at the screen</t>
-  </si>
-  <si>
-    <t>Percentage of time the participant looked at the background (on screen)</t>
-  </si>
-  <si>
     <t>Percentage of trials when pupil data was bad</t>
   </si>
   <si>
-    <t>Percentage of missing data on left eye</t>
-  </si>
-  <si>
-    <t>Percentage of missing data on right eye</t>
-  </si>
-  <si>
     <t>Percentage of offscreen data on left eye</t>
   </si>
   <si>
@@ -740,10 +725,10 @@
     <t>mean number of fixation for calm avert background</t>
   </si>
   <si>
-    <t>mean number of fixation for calm avert eyes</t>
-  </si>
-  <si>
     <t>mean number of fixation for calm avert mouth</t>
+  </si>
+  <si>
+    <t>mean number of fixation for  calm avert eyes</t>
   </si>
 </sst>
 </file>
@@ -793,8 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1132,1088 +1116,944 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593DCA62-547F-4B3E-B58D-B9E88426B182}">
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" customWidth="1"/>
-    <col min="2" max="2" width="64.08984375" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="58.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87" s="1" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88" s="1" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" s="1" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90" s="1" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B91" s="1" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B92" s="1" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93" s="1" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94" s="1" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98" s="1" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99" s="1" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100" s="1" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101" s="1" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102" s="1" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" s="1" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104" s="1" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B105" s="1" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" s="1" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107" s="1" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B108" s="1" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
         <v>218</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>99</v>
-      </c>
-      <c r="B117" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>100</v>
-      </c>
-      <c r="B118" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>101</v>
-      </c>
-      <c r="B119" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
-        <v>102</v>
-      </c>
-      <c r="B120" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>103</v>
-      </c>
-      <c r="B121" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>104</v>
-      </c>
-      <c r="B122" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>105</v>
-      </c>
-      <c r="B123" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>106</v>
-      </c>
-      <c r="B124" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>107</v>
-      </c>
-      <c r="B125" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>108</v>
-      </c>
-      <c r="B126" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>109</v>
-      </c>
-      <c r="B127" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>110</v>
-      </c>
-      <c r="B128" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>111</v>
-      </c>
-      <c r="B129" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>112</v>
-      </c>
-      <c r="B130" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>113</v>
-      </c>
-      <c r="B131" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
-        <v>114</v>
-      </c>
-      <c r="B132" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
